--- a/test/content.xlsx
+++ b/test/content.xlsx
@@ -786,7 +786,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,7 +796,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -810,6 +810,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -863,8 +869,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -1199,7 +1205,7 @@
     <col min="5" max="5" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1214,7 +1220,7 @@
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1229,7 +1235,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1244,7 +1250,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1259,7 +1265,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1274,7 +1280,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1289,7 +1295,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1304,7 +1310,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1319,7 +1325,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1334,7 +1340,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1349,7 +1355,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1364,7 +1370,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1379,7 +1385,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1394,7 +1400,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1409,7 +1415,7 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1424,7 +1430,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1439,7 +1445,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1454,7 +1460,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1469,7 +1475,7 @@
       </c>
       <c r="E18" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1484,7 +1490,7 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1">
         <v>18</v>
       </c>

--- a/test/content.xlsx
+++ b/test/content.xlsx
@@ -786,7 +786,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,12 +810,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -869,7 +863,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -879,7 +873,7 @@
       <alignment horizontal="justify"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -1505,7 +1499,7 @@
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1520,7 +1514,7 @@
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1535,7 +1529,7 @@
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1">
         <v>21</v>
       </c>

--- a/test/content.xlsx
+++ b/test/content.xlsx
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="E114" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="E150" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="E195" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="E216" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="E227" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="19.5">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="E243" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="19.5">
       <c r="A244" s="1">
         <v>242</v>
       </c>
